--- a/data/Lolol.xlsx
+++ b/data/Lolol.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Tranque Estacional Cerezos del Valle</t>
+          <t>Regularización Planta de Aceite de Oliva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cerezos del Valle SpA</t>
+          <t>De Prado Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>15/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154173868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157122581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153203789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154173868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización Planta de Aceite de Oliva</t>
+          <t>Ampliación Tranque Estacional Cerezos del Valle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>De Prado Chile SpA</t>
+          <t>Cerezos del Valle SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>50000</v>
+        <v>80</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149059788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153203789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148754879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149059788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Red de Riego Nuevo Canal Sur Tramo 2</t>
+          <t>Regularización Planta de Aceite de Oliva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>De Prado Chile SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5708</v>
+        <v>50000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138975544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148754879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nuevo Canal Sur</t>
+          <t>Red de Riego Nuevo Canal Sur Tramo 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133904016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138975544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Optimización del Sistema de Disposición de RILes y Continuidad Operacional de Bodega de Vinos Las Mercedes de Lolol, Viña Concha y Toro</t>
+          <t>Nuevo Canal Sur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>5708</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133576132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133904016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico La Frontera</t>
+          <t>Optimización del Sistema de Disposición de RILes y Continuidad Operacional de Bodega de Vinos Las Mercedes de Lolol, Viña Concha y Toro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GR Patagua SpA</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5445</v>
+        <v>40</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/02/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133576132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Lolol</t>
+          <t>Parque Solar Fotovoltaico La Frontera</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>GR Patagua SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>343</v>
+        <v>5445</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>22/02/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130568681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Red de Riego Canal Sur</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Lolol</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22900</v>
+        <v>343</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130568681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Red de riego Canal Sur</t>
+          <t>Red de Riego Canal Sur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128759732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embalse Estacional Los Robles</t>
+          <t>Red de riego Canal Sur</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lolol S.A.</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>310</v>
+        <v>22900</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/10/2013</t>
+          <t>14/11/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128759732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/09/2013</t>
+          <t>18/10/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128473805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EMBALSE DE ACUMULACION DE AGUAS EL VATICANO Embalse El Vaticano</t>
+          <t>Embalse Estacional Los Robles</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Viña El Vaticano S.A.</t>
+          <t>Inmobiliaria Lolol S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>769</v>
+        <v>310</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/05/2013</t>
+          <t>11/09/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8191649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128473805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>EMBALSE DE ACUMULACION DE AGUAS EL VATICANO Embalse El Vaticano</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña El Vaticano S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>769</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>24/05/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8191649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Red de Riego Canal Norte, Tramo 1a Convento Viejo</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3500</v>
+        <v>250</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/01/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7684342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Red de Riego Canal Norte, Tramo 1a Convento Viejo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>02/01/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7684342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Construcción de drenaje superficial en Fundo Portezuelo y Parcela El Señuelo</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lautaro Leiva Dimter</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>498</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6465588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Construcción de drenaje superficial en Fundo Portezuelo y Parcela El Señuelo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,16 +1298,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Lautaro Leiva Dimter</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>498</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6465588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Red de Riego Primaria, Embalse Convento Viejo: Canal Transferencia Canal Conwento Viejo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rehabilitación Embalse de Regulación Corta Fundo La Isla Lolol</t>
+          <t>Red de Riego Primaria, Embalse Convento Viejo: Canal Transferencia Canal Conwento Viejo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Siete Hermanas Limitada</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>303</v>
+        <v>2000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/02/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5353743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Reparación Embalse Estacional Lolol</t>
+          <t>Rehabilitación Embalse de Regulación Corta Fundo La Isla Lolol</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Embalse Lolol</t>
+          <t>Sociedad Agrícola Siete Hermanas Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14/02/2011</t>
+          <t>15/02/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5353306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5353743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EMBALSE DE ACUMULACIÓN ESTACIONAL LOS MAYOS - LOLOL</t>
+          <t>Reparación Embalse Estacional Lolol</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Agrícola El Tranque Ltda.</t>
+          <t>Comunidad de Aguas Embalse Lolol</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>14/02/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4717592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5353306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Construcción de sistema de drenaje subsuperficial en Lote B o Hijuela Nº3 del Fundo Portezuelo y parte de la Parcela El Sueño</t>
+          <t>EMBALSE DE ACUMULACIÓN ESTACIONAL LOS MAYOS - LOLOL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rodrigo Jeldres Villalobos</t>
+          <t>Agrícola El Tranque Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>380</v>
+        <v>99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4693266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4717592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Optimización Sistema de tratamiento y disposición en suelo de RILes de Viña Santa Cruz S.A.</t>
+          <t>Construcción de sistema de drenaje subsuperficial en Lote B o Hijuela Nº3 del Fundo Portezuelo y parte de la Parcela El Sueño</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Francisco Javier Correa Brahm</t>
+          <t>Rodrigo Jeldres Villalobos</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4567846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4693266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Santa Cruz S.A. (e-seia)</t>
+          <t>Optimización Sistema de tratamiento y disposición en suelo de RILes de Viña Santa Cruz S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Viña Santa Cruz S.A.</t>
+          <t>Francisco Javier Correa Brahm</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4567846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Santa Cruz S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Viña Santa Cruz S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,36 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Canales Primarios Nilahue: Canal Norte Tramo Km 11+896 al Km 23+746,7 y Canal de Transferencia</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3000</v>
+        <v>22</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3529382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Canales Primarios Nilahue: Canal Norte Unificado km13+560 al km 26+000 y Canal de Transferencia</t>
+          <t>Canales Primarios Nilahue: Canal Norte Tramo Km 11+896 al Km 23+746,7 y Canal de Transferencia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1831,7 +1835,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1841,7 +1845,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3473406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3529382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1856,14 +1860,10 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Canales Primarios, Nilahue (e-seia)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Canales Primarios Nilahue: Canal Norte Unificado km13+560 al km 26+000 y Canal de Transferencia</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>Sexta</t>
@@ -1875,21 +1875,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8521</v>
+        <v>3000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>06/01/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3473406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Canales Primarios, Nilahue (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,30 +1914,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>234</v>
+        <v>8521</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1967,15 +1967,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2015,15 +2015,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de riles, viña Santa Cruz (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2058,30 +2058,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Viña Santa Cruz S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2122895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de riles, Viña Santa Cruz (e-seia)</t>
+          <t>Sistema de Tratamiento de riles, viña Santa Cruz (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2111,25 +2111,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Francisco Javier Correa Brahm</t>
+          <t>Viña Santa Cruz S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>26/04/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2122895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema de tratamiento de riles, Viña Santa Cruz (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Francisco Javier Correa Brahm</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,17 +2215,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sistema de Tatarmiento de Riles. Vía Wines Group. Viña San Rafael S.A. Bodega Nilahue (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2250,30 +2250,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Viña San Rafael S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Línea 66 kV y Sub Estación de 4 MVA de Ranguili (e-seia)</t>
+          <t>Sistema de Tatarmiento de Riles. Vía Wines Group. Viña San Rafael S.A. Bodega Nilahue (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2298,20 +2298,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Viña San Rafael S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1460</v>
+        <v>136</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>06/09/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Línea 66 kV y Sub Estación de 4 MVA de Ranguili (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2351,25 +2351,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>1460</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,17 +2407,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Lolol (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2442,30 +2442,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>520</v>
+        <v>4000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Lolol (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2490,20 +2490,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>72</v>
+        <v>520</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto Embalse de Regulación de Agua de Riego, Fundo Ranguilí (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2586,30 +2586,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>520</v>
+        <v>72</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/07/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=919391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos Las Mercedes (e-seia)</t>
+          <t>Proyecto Embalse de Regulación de Agua de Riego, Fundo Ranguilí (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2639,15 +2639,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>520</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>06/07/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=304361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=919391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos Las Mercedes (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2687,15 +2687,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=304361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Reformulación Plan regulador Comunal de Lolol (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>José Manuel Morales Espinoza</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable, Alcantarilado y disposición de Residuos Industriales Liquidos de Viña JFL Chile S.A. (e-seia)</t>
+          <t>Reformulación Plan regulador Comunal de Lolol (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2783,25 +2783,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Paulina Patricia Feller Valdovinos</t>
+          <t>José Manuel Morales Espinoza</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/11/2002</t>
+          <t>27/05/2003</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2816,43 +2816,91 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable, Alcantarilado y disposición de Residuos Industriales Liquidos de Viña JFL Chile S.A. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Paulina Patricia Feller Valdovinos</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>25</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>27/11/2002</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36753&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Lolol</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Bodega de Vinos de la Viña Las Mercedes</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>26/07/2000</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Lolol</t>
         </is>

--- a/data/Lolol.xlsx
+++ b/data/Lolol.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lolol.xlsx
+++ b/data/Lolol.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
